--- a/DB/hospital/files/hospitals_english(excel).xlsx
+++ b/DB/hospital/files/hospitals_english(excel).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soldesk\Desktop\norangCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soldesk\Desktop\norangCode\새 폴더\MS_Project-DRT_2025-\DB\hospital\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,7 @@
     <t>인천광역시의료원</t>
   </si>
   <si>
-    <t>인천광역시 동구 방축로 217 (송림동 인천광역시 의료원)</t>
+    <t>인천광역시 동구 방축로 217 (송림동, 인천광역시 의료원)</t>
   </si>
   <si>
     <t>032-580-6000</t>
@@ -108,7 +108,7 @@
     <t>의료법인 나사렛의료재단 나사렛국제병원</t>
   </si>
   <si>
-    <t>인천광역시 연수구 먼우금로 98 (동춘동 나사렛국제병원)</t>
+    <t>인천광역시 연수구 먼우금로 98 (동춘동, 나사렛국제병원)</t>
   </si>
   <si>
     <t>032-899-9999</t>
@@ -117,7 +117,7 @@
     <t>인천적십자병원</t>
   </si>
   <si>
-    <t>인천광역시 연수구 원인재로 263 (연수동 인천적십자병원)</t>
+    <t>인천광역시 연수구 원인재로 263 (연수동, 인천적십자병원)</t>
   </si>
   <si>
     <t>032-899-4000</t>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
